--- a/Excel Output/Section_4.xlsx
+++ b/Excel Output/Section_4.xlsx
@@ -508,13 +508,13 @@
         <v>5.367585574295084e-08</v>
       </c>
       <c r="F2">
-        <v>0.001475367921139188</v>
+        <v>8.45877608119801e-05</v>
       </c>
       <c r="G2">
         <v>288.8380151009035</v>
       </c>
       <c r="H2">
-        <v>0.9647920121866074</v>
+        <v>0.9856971854925703</v>
       </c>
       <c r="I2">
         <v>2243.90404453724</v>
@@ -523,22 +523,22 @@
         <v>1.503719234532486e-07</v>
       </c>
       <c r="K2">
-        <v>6.561480587286943e-06</v>
+        <v>1.128574661013354e-06</v>
       </c>
       <c r="L2">
-        <v>0.9999940929989445</v>
+        <v>0.9999989839263349</v>
       </c>
       <c r="M2">
-        <v>1.000000046396674</v>
+        <v>1.00000001995057</v>
       </c>
       <c r="N2">
-        <v>5.532086077449236e-06</v>
+        <v>4.288438819728092e-06</v>
       </c>
       <c r="O2">
-        <v>3.635541249265561e-06</v>
+        <v>4.626971574241439e-05</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9986119063490565</v>
       </c>
       <c r="Q2">
         <v>0.559596290710022</v>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <v>0.999999995088244</v>
+        <v>0.998911029708026</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.964786308420378</v>
+        <v>0.9832560414468843</v>
       </c>
       <c r="X2">
-        <v>-2.902866736656406e-05</v>
+        <v>5.500829384352156e-05</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -582,13 +582,13 @@
         <v>3.785790525616838e-08</v>
       </c>
       <c r="F3">
-        <v>0.001040585905960386</v>
+        <v>5.966025860839545e-05</v>
       </c>
       <c r="G3">
         <v>409.5215392064057</v>
       </c>
       <c r="H3">
-        <v>0.9718881714766026</v>
+        <v>0.9886502033011436</v>
       </c>
       <c r="I3">
         <v>2039.228160405775</v>
@@ -597,22 +597,22 @@
         <v>1.63974051406698e-07</v>
       </c>
       <c r="K3">
-        <v>7.155009594981649e-06</v>
+        <v>1.230661650336843e-06</v>
       </c>
       <c r="L3">
-        <v>0.9999935586982839</v>
+        <v>0.9999988920158503</v>
       </c>
       <c r="M3">
-        <v>1.000000050593558</v>
+        <v>1.00000002175523</v>
       </c>
       <c r="N3">
-        <v>6.03249959180024e-06</v>
+        <v>4.676356272713366e-06</v>
       </c>
       <c r="O3">
-        <v>3.635541279437017e-06</v>
+        <v>4.626971635191057e-05</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9986119063307842</v>
       </c>
       <c r="Q3">
         <v>0.558311400768743</v>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0.9999999940358366</v>
+        <v>0.9988125836990939</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9718819054551933</v>
+        <v>0.9861044617940581</v>
       </c>
       <c r="X3">
-        <v>-0.002651495743759179</v>
+        <v>0.004810937419959023</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -656,13 +656,13 @@
         <v>2.67289016617397e-08</v>
       </c>
       <c r="F4">
-        <v>0.0007346871984280126</v>
+        <v>4.212206604320605e-05</v>
       </c>
       <c r="G4">
         <v>580.0323495457563</v>
       </c>
       <c r="H4">
-        <v>0.9775941405383264</v>
+        <v>0.9909901636191769</v>
       </c>
       <c r="I4">
         <v>1853.221620735355</v>
@@ -671,22 +671,22 @@
         <v>1.789906847856156e-07</v>
       </c>
       <c r="K4">
-        <v>7.810260562977727e-06</v>
+        <v>1.343364816832169e-06</v>
       </c>
       <c r="L4">
-        <v>0.9999929688390788</v>
+        <v>0.9999987905474682</v>
       </c>
       <c r="M4">
-        <v>1.000000055226882</v>
+        <v>1.000000023747559</v>
       </c>
       <c r="N4">
-        <v>6.584951848431098e-06</v>
+        <v>5.104613835993101e-06</v>
       </c>
       <c r="O4">
-        <v>3.635541315778576e-06</v>
+        <v>4.626971708604953e-05</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9986119063087754</v>
       </c>
       <c r="Q4">
         <v>0.5568262969557191</v>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.9999999927412236</v>
+        <v>0.9987039114119524</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9775872598205214</v>
+        <v>0.9883307529253443</v>
       </c>
       <c r="X4">
-        <v>-0.1006935673642209</v>
+        <v>0.1725480243876397</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -730,13 +730,13 @@
         <v>1.889490010158615e-08</v>
       </c>
       <c r="F5">
-        <v>0.0005193569640791581</v>
+        <v>2.977646594053839e-05</v>
       </c>
       <c r="G5">
         <v>820.5191638104975</v>
       </c>
       <c r="H5">
-        <v>0.9821631422633151</v>
+        <v>0.9928435482023036</v>
       </c>
       <c r="I5">
         <v>1684.181516440797</v>
@@ -745,22 +745,22 @@
         <v>1.956251490276788e-07</v>
       </c>
       <c r="K5">
-        <v>8.536105599056893e-06</v>
+        <v>1.468210163037785e-06</v>
       </c>
       <c r="L5">
-        <v>0.9999923154358121</v>
+        <v>0.9999986781473084</v>
       </c>
       <c r="M5">
-        <v>1.000000060359381</v>
+        <v>1.000000025954534</v>
       </c>
       <c r="N5">
-        <v>7.196923059053775e-06</v>
+        <v>5.579010123297503e-06</v>
       </c>
       <c r="O5">
-        <v>3.635541359750599e-06</v>
+        <v>4.626971797433217e-05</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9986119062821454</v>
       </c>
       <c r="Q5">
         <v>0.555120258358371</v>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>0.9999999911409848</v>
+        <v>0.9985835450186374</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -781,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9821555860666741</v>
+        <v>0.9900597135072837</v>
       </c>
       <c r="X5">
-        <v>-2.034622707012383</v>
+        <v>3.235580935503215</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -804,13 +804,13 @@
         <v>1.337698695977072e-08</v>
       </c>
       <c r="F6">
-        <v>0.0003676881750419945</v>
+        <v>2.108078870240768e-05</v>
       </c>
       <c r="G6">
         <v>1158.977554382103</v>
       </c>
       <c r="H6">
-        <v>0.9858089380432641</v>
+        <v>0.994311113364889</v>
       </c>
       <c r="I6">
         <v>1530.560267905421</v>
@@ -819,22 +819,22 @@
         <v>2.141258788883885e-07</v>
       </c>
       <c r="K6">
-        <v>9.343385156596287e-06</v>
+        <v>1.607062246934561e-06</v>
       </c>
       <c r="L6">
-        <v>0.9999915887314124</v>
+        <v>0.9999985531366847</v>
       </c>
       <c r="M6">
-        <v>1.00000006606771</v>
+        <v>1.000000028409115</v>
       </c>
       <c r="N6">
-        <v>7.877552978088505e-06</v>
+        <v>6.106630215572487e-06</v>
       </c>
       <c r="O6">
-        <v>3.635541413242794e-06</v>
+        <v>4.626971905493261e-05</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9986119062497498</v>
       </c>
       <c r="Q6">
         <v>0.5531745574539834</v>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <v>0.9999999891516369</v>
+        <v>0.9984496914329352</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0.9858006354451868</v>
+        <v>0.9913901326084549</v>
       </c>
       <c r="X6">
-        <v>-23.06711166600579</v>
+        <v>33.25409455185165</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -878,13 +878,13 @@
         <v>9.487602955131187e-09</v>
       </c>
       <c r="F7">
-        <v>0.0002607821497162477</v>
+        <v>1.495150991706486e-05</v>
       </c>
       <c r="G7">
         <v>1634.093216690894</v>
       </c>
       <c r="H7">
-        <v>0.9887098437399477</v>
+        <v>0.9954729761171546</v>
       </c>
       <c r="I7">
         <v>1390.95145672979</v>
@@ -893,22 +893,22 @@
         <v>2.348000179484226e-07</v>
       </c>
       <c r="K7">
-        <v>1.024550144922627e-05</v>
+        <v>1.762226249266918e-06</v>
       </c>
       <c r="L7">
-        <v>0.999990776663194</v>
+        <v>0.9999984134402136</v>
       </c>
       <c r="M7">
-        <v>1.000000072446636</v>
+        <v>1.000000031152053</v>
       </c>
       <c r="N7">
-        <v>8.638141219767962e-06</v>
+        <v>6.696233503696097e-06</v>
       </c>
       <c r="O7">
-        <v>3.635541478734091e-06</v>
+        <v>4.626972037792796e-05</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9986119062100874</v>
       </c>
       <c r="Q7">
         <v>0.5509744003448189</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>0.9999999866616698</v>
+        <v>0.9983001343646736</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -929,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9887007113484388</v>
+        <v>0.9923997703450063</v>
       </c>
       <c r="X7">
-        <v>-139.1084513544126</v>
+        <v>175.8592208577139</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -952,13 +952,13 @@
         <v>6.743738211120288e-09</v>
       </c>
       <c r="F8">
-        <v>0.0001853625785286916</v>
+        <v>1.062745450231165e-05</v>
       </c>
       <c r="G8">
         <v>2298.966410954563</v>
       </c>
       <c r="H8">
-        <v>0.9910129643887947</v>
+        <v>0.9963927520716632</v>
       </c>
       <c r="I8">
         <v>1264.076949825984</v>
@@ -967,22 +967,22 @@
         <v>2.580317192880479e-07</v>
       </c>
       <c r="K8">
-        <v>1.125921700096617e-05</v>
+        <v>1.936585324166181e-06</v>
       </c>
       <c r="L8">
-        <v>0.9999898641441938</v>
+        <v>0.999998256462155</v>
       </c>
       <c r="M8">
-        <v>1.000000079614687</v>
+        <v>1.000000034234315</v>
       </c>
       <c r="N8">
-        <v>9.492820528145347e-06</v>
+        <v>7.358775603213452e-06</v>
       </c>
       <c r="O8">
-        <v>3.635541559524757e-06</v>
+        <v>4.626972200998716e-05</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0.9986119061611596</v>
       </c>
       <c r="Q8">
         <v>0.5485113590834908</v>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>0.9999999835199433</v>
+        <v>0.9981321025783185</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9910029032925014</v>
+        <v>0.9931493578463295</v>
       </c>
       <c r="X8">
-        <v>-347.5917385804672</v>
+        <v>368.2716747476738</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1026,13 +1026,13 @@
         <v>4.806003878107212e-09</v>
       </c>
       <c r="F9">
-        <v>0.0001321008086873606</v>
+        <v>7.573779698075339e-06</v>
       </c>
       <c r="G9">
         <v>3225.887457615259</v>
       </c>
       <c r="H9">
-        <v>0.992838479593249</v>
+        <v>0.9971208995822876</v>
       </c>
       <c r="I9">
         <v>1148.775197977145</v>
@@ -1041,22 +1041,22 @@
         <v>2.843068211189093e-07</v>
       </c>
       <c r="K9">
-        <v>1.240573136769758e-05</v>
+        <v>2.133785795243982e-06</v>
       </c>
       <c r="L9">
-        <v>0.9999888320941894</v>
+        <v>0.9999980789196786</v>
       </c>
       <c r="M9">
-        <v>1.000000087721768</v>
+        <v>1.00000003772036</v>
       </c>
       <c r="N9">
-        <v>1.045946457767273e-05</v>
+        <v>8.108112075715298e-06</v>
       </c>
       <c r="O9">
-        <v>3.635541660078069e-06</v>
+        <v>4.626972404127328e-05</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0.9986119061002632</v>
       </c>
       <c r="Q9">
         <v>0.5457861921137659</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>0.9999999795181568</v>
+        <v>0.997942092366397</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.9928273713316887</v>
+        <v>0.9936857588242609</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1097,13 +1097,13 @@
         <v>3.435864251838654e-09</v>
       </c>
       <c r="F10">
-        <v>9.444029961678572e-05</v>
+        <v>5.414577178029048e-06</v>
       </c>
       <c r="G10">
         <v>4512.293413029868</v>
       </c>
       <c r="H10">
-        <v>0.9942837686485935</v>
+        <v>0.9976974087103292</v>
       </c>
       <c r="I10">
         <v>1043.990601734412</v>
@@ -1112,22 +1112,22 @@
         <v>3.142461232563716e-07</v>
       </c>
       <c r="K10">
-        <v>1.371213315641283e-05</v>
+        <v>2.358486902903006e-06</v>
       </c>
       <c r="L10">
-        <v>0.9999876561330137</v>
+        <v>0.9999978766180142</v>
       </c>
       <c r="M10">
-        <v>1.000000096959423</v>
+        <v>1.000000041692552</v>
       </c>
       <c r="N10">
-        <v>1.156091219315592e-05</v>
+        <v>8.961947436554979e-06</v>
       </c>
       <c r="O10">
-        <v>3.635541786530082e-06</v>
+        <v>4.626972659574131e-05</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.9986119060236822</v>
       </c>
       <c r="Q10">
         <v>0.5428117725830619</v>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>0.9999999743642335</v>
+        <v>0.9977256283263489</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0.9942714698530947</v>
+        <v>0.994044415253622</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1168,13 +1168,13 @@
         <v>2.465614566222241e-09</v>
       </c>
       <c r="F11">
-        <v>6.777141391687155e-05</v>
+        <v>3.885561064567301e-06</v>
       </c>
       <c r="G11">
         <v>6287.936421218773</v>
       </c>
       <c r="H11">
-        <v>0.9954272089703659</v>
+        <v>0.9981539549560381</v>
       </c>
       <c r="I11">
         <v>948.7638472949203</v>
@@ -1183,22 +1183,22 @@
         <v>3.486501754466912e-07</v>
       </c>
       <c r="K11">
-        <v>1.521335436437971e-05</v>
+        <v>2.616696950673309e-06</v>
       </c>
       <c r="L11">
-        <v>0.9999863048218951</v>
+        <v>0.9999976441478159</v>
       </c>
       <c r="M11">
-        <v>1.00000010757466</v>
+        <v>1.000000046257104</v>
       </c>
       <c r="N11">
-        <v>1.282661508342371e-05</v>
+        <v>9.943112467770321e-06</v>
       </c>
       <c r="O11">
-        <v>3.635541947459965e-06</v>
+        <v>4.626972984669975e-05</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0.9986119059262211</v>
       </c>
       <c r="Q11">
         <v>0.5396155854850875</v>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>0.9999999676411772</v>
+        <v>0.9974769416908618</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0.995413544207037</v>
+        <v>0.9942511761992601</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1239,13 +1239,13 @@
         <v>1.777304497156777e-09</v>
       </c>
       <c r="F12">
-        <v>4.885209569380532e-05</v>
+        <v>2.800853486444838e-06</v>
       </c>
       <c r="G12">
         <v>8723.112812935602</v>
       </c>
       <c r="H12">
-        <v>0.9963315494983843</v>
+        <v>0.9985156190492382</v>
       </c>
       <c r="I12">
         <v>862.2231238848399</v>
@@ -1254,22 +1254,22 @@
         <v>3.885593017498834e-07</v>
       </c>
       <c r="K12">
-        <v>1.695478954376938e-05</v>
+        <v>2.916223801528333e-06</v>
       </c>
       <c r="L12">
-        <v>0.9999847373066539</v>
+        <v>0.9999973744795766</v>
       </c>
       <c r="M12">
-        <v>1.000000119888467</v>
+        <v>1.000000051552041</v>
       </c>
       <c r="N12">
-        <v>1.429484609965923e-05</v>
+        <v>1.108127604624747e-05</v>
       </c>
       <c r="O12">
-        <v>3.635542155068227e-06</v>
+        <v>4.626973404061215e-05</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.9986119058004909</v>
       </c>
       <c r="Q12">
         <v>0.536240921036377</v>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="S12">
-        <v>0.9999999587424308</v>
+        <v>0.9971885397724399</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0.9963163016898828</v>
+        <v>0.9943235845157605</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1310,13 +1310,13 @@
         <v>1.287940625483673e-09</v>
       </c>
       <c r="F13">
-        <v>3.540113626265009e-05</v>
+        <v>2.029665145725272e-06</v>
       </c>
       <c r="G13">
         <v>12037.53288379588</v>
       </c>
       <c r="H13">
-        <v>0.9970468220745173</v>
+        <v>0.9988022568760464</v>
       </c>
       <c r="I13">
         <v>783.5761422416842</v>
@@ -1325,22 +1325,22 @@
         <v>4.353334933163737e-07</v>
       </c>
       <c r="K13">
-        <v>1.899578192387275e-05</v>
+        <v>3.267274490906111e-06</v>
       </c>
       <c r="L13">
-        <v>0.9999829001809778</v>
+        <v>0.9999970584237929</v>
       </c>
       <c r="M13">
-        <v>1.000000134320462</v>
+        <v>1.000000057757799</v>
       </c>
       <c r="N13">
-        <v>1.601563843912394e-05</v>
+        <v>1.241522359622011e-05</v>
       </c>
       <c r="O13">
-        <v>3.635542426999088e-06</v>
+        <v>4.626973953391093e-05</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.998611905635806</v>
       </c>
       <c r="Q13">
         <v>0.5327455337001347</v>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="S13">
-        <v>0.9999999467691951</v>
+        <v>0.9968506338315333</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0.9970297196816059</v>
+        <v>0.9942716727023944</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1381,13 +1381,13 @@
         <v>9.390963302072559e-10</v>
       </c>
       <c r="F14">
-        <v>2.581258521675785e-05</v>
+        <v>1.47992155242745e-06</v>
       </c>
       <c r="G14">
         <v>16509.09191415405</v>
       </c>
       <c r="H14">
-        <v>0.9976127981233854</v>
+        <v>0.9990295884369856</v>
       </c>
       <c r="I14">
         <v>712.1028811242669</v>
@@ -1396,22 +1396,22 @@
         <v>4.907577335573345e-07</v>
       </c>
       <c r="K14">
-        <v>2.141421927610398e-05</v>
+        <v>3.683245715489883e-06</v>
       </c>
       <c r="L14">
-        <v>0.9999807233515035</v>
+        <v>0.9999966839192841</v>
       </c>
       <c r="M14">
-        <v>1.000000151421397</v>
+        <v>1.000000065111201</v>
       </c>
       <c r="N14">
-        <v>1.805466049024207e-05</v>
+        <v>1.399586084514889e-05</v>
       </c>
       <c r="O14">
-        <v>3.635542789187892e-06</v>
+        <v>4.62697468505182e-05</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0.9986119054164599</v>
       </c>
       <c r="Q14">
         <v>0.5291962741291327</v>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="S14">
-        <v>0.9999999303647983</v>
+        <v>0.9964503864611007</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>0.9975934980245111</v>
+        <v>0.9940982978203923</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1452,13 +1452,13 @@
         <v>6.896156232966538e-10</v>
       </c>
       <c r="F15">
-        <v>1.895520349783911e-05</v>
+        <v>1.086765000542776e-06</v>
       </c>
       <c r="G15">
         <v>22481.54929774136</v>
       </c>
       <c r="H15">
-        <v>0.9980610250599951</v>
+        <v>0.9992100617446585</v>
       </c>
       <c r="I15">
         <v>647.1489954438608</v>
@@ -1467,22 +1467,22 @@
         <v>5.571791671282506e-07</v>
       </c>
       <c r="K15">
-        <v>2.431251928415591e-05</v>
+        <v>4.181753316874816e-06</v>
       </c>
       <c r="L15">
-        <v>0.999978114653304</v>
+        <v>0.9999962351063459</v>
       </c>
       <c r="M15">
-        <v>1.000000171915473</v>
+        <v>1.000000073923653</v>
       </c>
       <c r="N15">
-        <v>2.049826219103514e-05</v>
+        <v>1.589012572948462e-05</v>
       </c>
       <c r="O15">
-        <v>3.63554328035003e-06</v>
+        <v>4.62697567725269e-05</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.9986119051190059</v>
       </c>
       <c r="Q15">
         <v>0.5256582457685889</v>
@@ -1491,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="S15">
-        <v>0.999999907444451</v>
+        <v>0.9959709343089467</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0.9980390897743734</v>
+        <v>0.9937990271407982</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1523,13 +1523,13 @@
         <v>5.104890294133102e-10</v>
       </c>
       <c r="F16">
-        <v>1.403161864240587e-05</v>
+        <v>8.0447946883127e-07</v>
       </c>
       <c r="G16">
         <v>30370.14850143637</v>
       </c>
       <c r="H16">
-        <v>0.9984164903347259</v>
+        <v>0.9993535367102148</v>
       </c>
       <c r="I16">
         <v>588.1198256673173</v>
@@ -1538,22 +1538,22 @@
         <v>6.376831780500678e-07</v>
       </c>
       <c r="K16">
-        <v>2.782531271481565e-05</v>
+        <v>4.785953786948289e-06</v>
       </c>
       <c r="L16">
-        <v>0.9999749529389268</v>
+        <v>0.9999956911370004</v>
       </c>
       <c r="M16">
-        <v>1.000000196754673</v>
+        <v>1.000000084604509</v>
       </c>
       <c r="N16">
-        <v>2.345995282963278e-05</v>
+        <v>1.818600994545177e-05</v>
       </c>
       <c r="O16">
-        <v>3.635543959111055e-06</v>
+        <v>4.62697704842369e-05</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0.9986119047079396</v>
       </c>
       <c r="Q16">
         <v>0.5221776776416321</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="S16">
-        <v>0.9999998747495737</v>
+        <v>0.9953901386318408</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0.9983913578869572</v>
+        <v>0.9933615720216146</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1594,13 +1594,13 @@
         <v>3.812543930937494e-10</v>
       </c>
       <c r="F17">
-        <v>1.047939513172604e-05</v>
+        <v>6.008186542189593e-07</v>
       </c>
       <c r="G17">
         <v>40664.78422931654</v>
       </c>
       <c r="H17">
-        <v>0.9986989652721926</v>
+        <v>0.9994678251744962</v>
       </c>
       <c r="I17">
         <v>534.4749536476113</v>
@@ -1609,22 +1609,22 @@
         <v>7.363158903387759e-07</v>
       </c>
       <c r="K17">
-        <v>3.212915223546278e-05</v>
+        <v>5.526214184499596e-06</v>
       </c>
       <c r="L17">
-        <v>0.9999710793468791</v>
+        <v>0.9999950246715801</v>
       </c>
       <c r="M17">
-        <v>1.000000227187414</v>
+        <v>1.000000097690588</v>
       </c>
       <c r="N17">
-        <v>2.708858669892727e-05</v>
+        <v>2.099890441777309e-05</v>
       </c>
       <c r="O17">
-        <v>3.635544915399519e-06</v>
+        <v>4.626978980230265e-05</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0.9986119041287991</v>
       </c>
       <c r="Q17">
         <v>0.518759221893586</v>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>0.9999998271058896</v>
+        <v>0.9946790152128568</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>0.9986699095816703</v>
+        <v>0.9927647576710434</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1665,13 +1665,13 @@
         <v>2.874682951751665e-10</v>
       </c>
       <c r="F18">
-        <v>7.901532172623275e-06</v>
+        <v>4.530211778970678e-07</v>
       </c>
       <c r="G18">
         <v>53931.60877859362</v>
       </c>
       <c r="H18">
-        <v>0.9989240796479615</v>
+        <v>0.9995591161174505</v>
       </c>
       <c r="I18">
         <v>485.7232550398801</v>
@@ -1680,22 +1680,22 @@
         <v>8.583611224937569e-07</v>
       </c>
       <c r="K18">
-        <v>3.745459732631318e-05</v>
+        <v>6.442190740125866e-06</v>
       </c>
       <c r="L18">
-        <v>0.9999662864356312</v>
+        <v>0.9999942000073849</v>
       </c>
       <c r="M18">
-        <v>1.000000264843998</v>
+        <v>1.000000113882919</v>
       </c>
       <c r="N18">
-        <v>3.157855207357078e-05</v>
+        <v>2.447949773145023e-05</v>
       </c>
       <c r="O18">
-        <v>3.635546288729986e-06</v>
+        <v>4.626981754506984e-05</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0.9986119032970927</v>
       </c>
       <c r="Q18">
         <v>0.5153408634255596</v>
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.9999997561790646</v>
+        <v>0.9937997951035916</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>0.9988901588063105</v>
+        <v>0.9919770092748216</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1736,13 +1736,13 @@
         <v>2.189290315033527e-10</v>
       </c>
       <c r="F19">
-        <v>6.017619386134081e-06</v>
+        <v>3.450101781383539e-07</v>
       </c>
       <c r="G19">
         <v>70815.768585716</v>
       </c>
       <c r="H19">
-        <v>0.9991041740562253</v>
+        <v>0.9996323095162788</v>
       </c>
       <c r="I19">
         <v>441.4184030073134</v>
@@ -1751,22 +1751,22 @@
         <v>1.010681254361173e-06</v>
       </c>
       <c r="K19">
-        <v>4.410108800987333e-05</v>
+        <v>7.58538713769821e-06</v>
       </c>
       <c r="L19">
-        <v>0.9999603048139074</v>
+        <v>0.9999931707755149</v>
       </c>
       <c r="M19">
-        <v>1.000000311841784</v>
+        <v>1.000000134091967</v>
       </c>
       <c r="N19">
-        <v>3.718231148202808e-05</v>
+        <v>2.882349727289e-05</v>
       </c>
       <c r="O19">
-        <v>3.635548297628319e-06</v>
+        <v>4.626985812699831e-05</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0.9986119020804783</v>
       </c>
       <c r="Q19">
         <v>0.5117726755690645</v>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>0.9999996483752268</v>
+        <v>0.992703563237862</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0.999064163134277</v>
+        <v>0.9909543250042786</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1807,13 +1807,13 @@
         <v>1.684270257958236e-10</v>
       </c>
       <c r="F20">
-        <v>4.629489879063078e-06</v>
+        <v>2.654240863996164e-07</v>
       </c>
       <c r="G20">
         <v>92049.5244654542</v>
       </c>
       <c r="H20">
-        <v>0.9992489722991847</v>
+        <v>0.9996912780697552</v>
       </c>
       <c r="I20">
         <v>401.1547820528561</v>
@@ -1822,22 +1822,22 @@
         <v>1.202135448287695e-06</v>
       </c>
       <c r="K20">
-        <v>5.245519393573196e-05</v>
+        <v>9.022293356945895e-06</v>
       </c>
       <c r="L20">
-        <v>0.9999527867426922</v>
+        <v>0.9999918771150724</v>
       </c>
       <c r="M20">
-        <v>1.000000370914233</v>
+        <v>1.00000015949312</v>
       </c>
       <c r="N20">
-        <v>4.422578779307941e-05</v>
+        <v>3.428355642874374e-05</v>
       </c>
       <c r="O20">
-        <v>3.635551287081997e-06</v>
+        <v>4.626991851720985e-05</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0.9986119002700271</v>
       </c>
       <c r="Q20">
         <v>0.5078081570284126</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>0.9999994812829522</v>
+        <v>0.9913274026481506</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0.999201276197336</v>
+        <v>0.9896376828809544</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1878,13 +1878,13 @@
         <v>1.308651919445982e-10</v>
       </c>
       <c r="F21">
-        <v>3.597041975695726e-06</v>
+        <v>2.062304066065549e-07</v>
       </c>
       <c r="G21">
         <v>118470.2165737075</v>
       </c>
       <c r="H21">
-        <v>0.9993661111002833</v>
+        <v>0.9997390727483886</v>
       </c>
       <c r="I21">
         <v>364.563774567433</v>
@@ -1893,22 +1893,22 @@
         <v>1.444097578693565e-06</v>
       </c>
       <c r="K21">
-        <v>6.301321424336148e-05</v>
+        <v>1.083827284985817e-05</v>
       </c>
       <c r="L21">
-        <v>0.999943285836021</v>
+        <v>0.9999902421737222</v>
       </c>
       <c r="M21">
-        <v>1.000000445570711</v>
+        <v>1.000000191595406</v>
       </c>
       <c r="N21">
-        <v>5.31274185107608e-05</v>
+        <v>4.118404535717893e-05</v>
       </c>
       <c r="O21">
-        <v>3.635555805193952e-06</v>
+        <v>4.627000978797908e-05</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.9986118975338011</v>
       </c>
       <c r="Q21">
         <v>0.5031170784148096</v>
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <v>0.9999992176210595</v>
+        <v>0.9895909229355906</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>0.9993086510481279</v>
+        <v>0.9879497761824972</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1949,13 +1949,13 @@
         <v>1.026386281087213e-10</v>
       </c>
       <c r="F22">
-        <v>2.821189104213386e-06</v>
+        <v>1.617481753082341e-07</v>
       </c>
       <c r="G22">
         <v>151050.6123992025</v>
       </c>
       <c r="H22">
-        <v>0.99946155951445</v>
+        <v>0.9997780854859339</v>
       </c>
       <c r="I22">
         <v>331.3103860976593</v>
@@ -1964,22 +1964,22 @@
         <v>1.751112310064584e-06</v>
       </c>
       <c r="K22">
-        <v>7.640980553274778e-05</v>
+        <v>1.314248655163262e-05</v>
       </c>
       <c r="L22">
-        <v>0.9999312313584449</v>
+        <v>0.9999881676749252</v>
       </c>
       <c r="M22">
-        <v>1.000000540298916</v>
+        <v>1.000000232328534</v>
       </c>
       <c r="N22">
-        <v>6.442229246053428e-05</v>
+        <v>4.993976159731342e-05</v>
       </c>
       <c r="O22">
-        <v>3.635562727329658e-06</v>
+        <v>4.627014962263944e-05</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0.9986118933416676</v>
       </c>
       <c r="Q22">
         <v>0.4973249252852727</v>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <v>0.9999987949054014</v>
+        <v>0.987391960551177</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.9993916235378169</v>
+        <v>0.9857908784103094</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2020,13 +2020,13 @@
         <v>8.119608707754666e-11</v>
       </c>
       <c r="F23">
-        <v>2.231806098628784e-06</v>
+        <v>1.279568829880503e-07</v>
       </c>
       <c r="G23">
         <v>190940.5759520105</v>
       </c>
       <c r="H23">
-        <v>0.9995399551763294</v>
+        <v>0.999810179905098</v>
       </c>
       <c r="I23">
         <v>301.0901784370148</v>
@@ -2035,22 +2035,22 @@
         <v>2.141751266667246e-06</v>
       </c>
       <c r="K23">
-        <v>9.345534083963168e-05</v>
+        <v>1.607431862441665e-05</v>
       </c>
       <c r="L23">
-        <v>0.9999158946981475</v>
+        <v>0.9999855281333898</v>
       </c>
       <c r="M23">
-        <v>1.000000660829052</v>
+        <v>1.000000284156493</v>
       </c>
       <c r="N23">
-        <v>7.879364772089819e-05</v>
+        <v>6.108034707046372e-05</v>
       </c>
       <c r="O23">
-        <v>3.635573457984819e-06</v>
+        <v>4.627036639352975e-05</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0.9986118868430464</v>
       </c>
       <c r="Q23">
         <v>0.4900757859888837</v>
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="S23">
-        <v>0.9999981077290836</v>
+        <v>0.9846011105091516</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <v>0.9994539973253755</v>
+        <v>0.9830335085756617</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2091,13 +2091,13 @@
         <v>6.472908254021182e-11</v>
       </c>
       <c r="F24">
-        <v>1.779183780542539e-06</v>
+        <v>1.020065367511056e-07</v>
       </c>
       <c r="G24">
         <v>239515.6400062521</v>
       </c>
       <c r="H24">
-        <v>0.9996048786845908</v>
+        <v>0.9998367984793419</v>
       </c>
       <c r="I24">
         <v>273.6264824626152</v>
@@ -2106,22 +2106,22 @@
         <v>2.639758229302488e-06</v>
       </c>
       <c r="K24">
-        <v>0.0001151858803088618</v>
+        <v>1.981197141312423e-05</v>
       </c>
       <c r="L24">
-        <v>0.9998963445413453</v>
+        <v>0.9999821631179606</v>
       </c>
       <c r="M24">
-        <v>1.000000814487171</v>
+        <v>1.000000350229483</v>
       </c>
       <c r="N24">
-        <v>9.711500267333217e-05</v>
+        <v>7.528294780878468e-05</v>
       </c>
       <c r="O24">
-        <v>3.635590260795739e-06</v>
+        <v>4.627070582856217e-05</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0.9986118766670504</v>
       </c>
       <c r="Q24">
         <v>0.4811052195154485</v>
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="S24">
-        <v>0.9999969772136722</v>
+        <v>0.9810546244512774</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0.9994982429036613</v>
+        <v>0.97951544046849</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2162,13 +2162,13 @@
         <v>5.19510914822534e-11</v>
       </c>
       <c r="F25">
-        <v>1.427959979029303e-06</v>
+        <v>8.186970546434671e-08</v>
       </c>
       <c r="G25">
         <v>298427.3706151568</v>
       </c>
       <c r="H25">
-        <v>0.9996590810547902</v>
+        <v>0.9998590519136208</v>
       </c>
       <c r="I25">
         <v>248.6678652008114</v>
@@ -2177,22 +2177,22 @@
         <v>3.275594601362588e-06</v>
       </c>
       <c r="K25">
-        <v>0.0001429306076233356</v>
+        <v>2.458406451121372e-05</v>
       </c>
       <c r="L25">
-        <v>0.9998713864082399</v>
+        <v>0.9999778668105458</v>
       </c>
       <c r="M25">
-        <v>1.000001010672019</v>
+        <v>1.000000434588968</v>
       </c>
       <c r="N25">
-        <v>0.000120507012701741</v>
+        <v>9.341628891607832e-05</v>
       </c>
       <c r="O25">
-        <v>3.635616801199432e-06</v>
+        <v>4.627124197354598e-05</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0.9986118605938448</v>
       </c>
       <c r="Q25">
         <v>0.4703022547444596</v>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>0.9999950980386683</v>
+        <v>0.9765451662597038</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0.9995256116499238</v>
+        <v>0.9750305533129878</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2233,13 +2233,13 @@
         <v>4.19409704133572e-11</v>
       </c>
       <c r="F26">
-        <v>1.15281557178418e-06</v>
+        <v>6.609475944895962e-08</v>
       </c>
       <c r="G26">
         <v>369653.5268220407</v>
       </c>
       <c r="H26">
-        <v>0.9997046730019368</v>
+        <v>0.9998777940214144</v>
       </c>
       <c r="I26">
         <v>225.9858279323433</v>
@@ -2248,22 +2248,22 @@
         <v>4.088506704298104e-06</v>
       </c>
       <c r="K26">
-        <v>0.0001784020364651721</v>
+        <v>3.068515027200959e-05</v>
       </c>
       <c r="L26">
-        <v>0.9998394818220476</v>
+        <v>0.9999723740401503</v>
       </c>
       <c r="M26">
-        <v>1.000001261492898</v>
+        <v>1.000000542441946</v>
       </c>
       <c r="N26">
-        <v>0.0001504135246593254</v>
+        <v>0.000116599631518857</v>
       </c>
       <c r="O26">
-        <v>3.635659043235877e-06</v>
+        <v>4.627209530856707e-05</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0.9986118350115314</v>
       </c>
       <c r="Q26">
         <v>0.457740489247672</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <v>0.9999919461066371</v>
+        <v>0.9708100349684681</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0.9995361520069198</v>
+        <v>0.9693171373112277</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2304,13 +2304,13 @@
         <v>3.40326572343741e-11</v>
       </c>
       <c r="F27">
-        <v>9.35442762108458e-07</v>
+        <v>5.363205169421826e-08</v>
       </c>
       <c r="G27">
         <v>455551.4876451428</v>
       </c>
       <c r="H27">
-        <v>0.999743280062091</v>
+        <v>0.9998936834617944</v>
       </c>
       <c r="I27">
         <v>205.3727142629607</v>
@@ -2319,22 +2319,22 @@
         <v>5.12923820423864e-06</v>
       </c>
       <c r="K27">
-        <v>0.0002238143672821077</v>
+        <v>3.849607117252252e-05</v>
       </c>
       <c r="L27">
-        <v>0.9997986423389401</v>
+        <v>0.9999653419596192</v>
       </c>
       <c r="M27">
-        <v>1.000001582606568</v>
+        <v>1.000000680520824</v>
       </c>
       <c r="N27">
-        <v>0.0001887013652945083</v>
+        <v>0.0001462801281352778</v>
       </c>
       <c r="O27">
-        <v>3.635726736411463e-06</v>
+        <v>4.627346278424479e-05</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0.9986117940156863</v>
       </c>
       <c r="Q27">
         <v>0.4436687416136129</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>0.9999866169527847</v>
+        <v>0.9635167640557321</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <v>0.9995285971761244</v>
+        <v>0.9620435650553938</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2375,13 +2375,13 @@
         <v>2.773841210272067e-11</v>
       </c>
       <c r="F28">
-        <v>7.624352296435928e-07</v>
+        <v>4.371295316623265e-08</v>
       </c>
       <c r="G28">
         <v>558922.6800086264</v>
       </c>
       <c r="H28">
-        <v>0.9997761653714831</v>
+        <v>0.9999072328401685</v>
       </c>
       <c r="I28">
         <v>186.6398090076832</v>
@@ -2390,22 +2390,22 @@
         <v>6.46352412286314e-06</v>
       </c>
       <c r="K28">
-        <v>0.0002820359484914944</v>
+        <v>4.851018314053702e-05</v>
       </c>
       <c r="L28">
-        <v>0.9997462931872256</v>
+        <v>0.9999563264443363</v>
       </c>
       <c r="M28">
-        <v>1.000001994295317</v>
+        <v>1.000000857546986</v>
       </c>
       <c r="N28">
-        <v>0.0002377888836572968</v>
+        <v>0.0001843324679513929</v>
       </c>
       <c r="O28">
-        <v>3.635835884802442e-06</v>
+        <v>4.62756677003037e-05</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0.9986117279140412</v>
       </c>
       <c r="Q28">
         <v>0.428467029507397</v>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="S28">
-        <v>0.9999775422510851</v>
+        <v>0.9542464093781271</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="W28">
-        <v>0.9995000683213945</v>
+        <v>0.9527916422730782</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2446,13 +2446,13 @@
         <v>2.269612593133847e-11</v>
       </c>
       <c r="F29">
-        <v>6.238398190350156e-07</v>
+        <v>3.576681629134089e-08</v>
       </c>
       <c r="G29">
         <v>683095.7705530341</v>
       </c>
       <c r="H29">
-        <v>0.9998043224796249</v>
+        <v>0.9999188459484265</v>
       </c>
       <c r="I29">
         <v>169.6156104837871</v>
@@ -2461,22 +2461,22 @@
         <v>8.176553442485585e-06</v>
       </c>
       <c r="K29">
-        <v>0.0003567840023038845</v>
+        <v>6.136684839626812e-05</v>
       </c>
       <c r="L29">
-        <v>0.9996790993351397</v>
+        <v>0.9999447519513474</v>
       </c>
       <c r="M29">
-        <v>1.000002522843874</v>
+        <v>1.000001084822866</v>
       </c>
       <c r="N29">
-        <v>0.0003008101274621085</v>
+        <v>0.000233186145319464</v>
       </c>
       <c r="O29">
-        <v>3.636012850738245e-06</v>
+        <v>4.627924260443404e-05</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0.998611620741243</v>
       </c>
       <c r="Q29">
         <v>0.4125851016825388</v>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="S29">
-        <v>0.9999619917121928</v>
+        <v>0.9424752650894087</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0.9994454959518695</v>
+        <v>0.9410383790776521</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2517,13 +2517,13 @@
         <v>1.863343535955882e-11</v>
       </c>
       <c r="F30">
-        <v>5.12170181725032e-07</v>
+        <v>2.936442375223517e-08</v>
       </c>
       <c r="G30">
         <v>832032.7053209274</v>
       </c>
       <c r="H30">
-        <v>0.9998285426526707</v>
+        <v>0.9999288448218375</v>
       </c>
       <c r="I30">
         <v>154.1442603951844</v>
@@ -2532,22 +2532,22 @@
         <v>1.037868300424866e-05</v>
       </c>
       <c r="K30">
-        <v>0.0004528739507355905</v>
+        <v>7.789431952652154e-05</v>
       </c>
       <c r="L30">
-        <v>0.9995927431366959</v>
+        <v>0.9999298729322121</v>
       </c>
       <c r="M30">
-        <v>1.000003202302416</v>
+        <v>1.000001376990039</v>
       </c>
       <c r="N30">
-        <v>0.000381825053716985</v>
+        <v>0.0002959884137340971</v>
       </c>
       <c r="O30">
-        <v>3.636301181422699e-06</v>
+        <v>4.628506719745579e-05</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0.9986114461245759</v>
       </c>
       <c r="Q30">
         <v>0.3964823831537038</v>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <v>0.9999351969622983</v>
+        <v>0.927556308586128</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.9993565900767601</v>
+        <v>0.9261374860287853</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2588,13 +2588,13 @@
         <v>1.534316539601589e-11</v>
       </c>
       <c r="F31">
-        <v>4.217317771778152e-07</v>
+        <v>2.417928855819474e-08</v>
       </c>
       <c r="G31">
         <v>1010458.222373209</v>
       </c>
       <c r="H31">
-        <v>0.9998494627487227</v>
+        <v>0.9999374890050646</v>
       </c>
       <c r="I31">
         <v>140.0841169336214</v>
@@ -2603,22 +2603,22 @@
         <v>1.321280581364587e-05</v>
       </c>
       <c r="K31">
-        <v>0.0005765409317038065</v>
+        <v>9.916504025305469e-05</v>
       </c>
       <c r="L31">
-        <v>0.9994816381133077</v>
+        <v>0.9999107240815998</v>
       </c>
       <c r="M31">
-        <v>1.000004076760024</v>
+        <v>1.00000175300681</v>
       </c>
       <c r="N31">
-        <v>0.0004860906039313652</v>
+        <v>0.0003768144216522212</v>
       </c>
       <c r="O31">
-        <v>3.63677297879499e-06</v>
+        <v>4.62945980168603e-05</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0.9986111603982547</v>
       </c>
       <c r="Q31">
         <v>0.3805814571968537</v>
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="S31">
-        <v>0.9998888091201356</v>
+        <v>0.908702755338561</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>0.9992200623817467</v>
+        <v>0.9073029804050541</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2659,13 +2659,13 @@
         <v>1.266622346411515e-11</v>
       </c>
       <c r="F32">
-        <v>3.481516879847818e-07</v>
+        <v>1.996069677779415e-08</v>
       </c>
       <c r="G32">
         <v>1224013.430329876</v>
       </c>
       <c r="H32">
-        <v>0.9998675996718454</v>
+        <v>0.9999449894281651</v>
       </c>
       <c r="I32">
         <v>127.3064580332929</v>
@@ -2674,22 +2674,22 @@
         <v>1.686389931688434e-05</v>
       </c>
       <c r="K32">
-        <v>0.0007358564381741147</v>
+        <v>0.0001265673073659477</v>
       </c>
       <c r="L32">
-        <v>0.9993385588320713</v>
+        <v>0.9998860558802107</v>
       </c>
       <c r="M32">
-        <v>1.000005203290774</v>
+        <v>1.000002237415033</v>
       </c>
       <c r="N32">
-        <v>0.0006204119790450553</v>
+        <v>0.000480939518639578</v>
       </c>
       <c r="O32">
-        <v>3.637547859267136e-06</v>
+        <v>4.631025144410229e-05</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0.998610691121239</v>
       </c>
       <c r="Q32">
         <v>0.3652386406504299</v>
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>0.999808181716685</v>
+        <v>0.8849781677383001</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="W32">
-        <v>0.9990145800521438</v>
+        <v>0.8835993517695292</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2730,13 +2730,13 @@
         <v>1.047941257128225e-11</v>
       </c>
       <c r="F33">
-        <v>2.880436450625761e-07</v>
+        <v>1.651450231692103e-08</v>
       </c>
       <c r="G33">
         <v>1479436.707561495</v>
       </c>
       <c r="H33">
-        <v>0.9998833759437782</v>
+        <v>0.999951518716826</v>
       </c>
       <c r="I33">
         <v>115.6943029070325</v>
@@ -2745,22 +2745,22 @@
         <v>2.157141146188025e-05</v>
       </c>
       <c r="K33">
-        <v>0.0009412687840726594</v>
+        <v>0.0001618982308604974</v>
       </c>
       <c r="L33">
-        <v>0.9991541619737349</v>
+        <v>0.9998542510036165</v>
       </c>
       <c r="M33">
-        <v>1.000006655775401</v>
+        <v>1.000002861983423</v>
       </c>
       <c r="N33">
-        <v>0.0007935983146235305</v>
+        <v>0.0006151924919562255</v>
       </c>
       <c r="O33">
-        <v>3.638824601866674e-06</v>
+        <v>4.633604303145932e-05</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0.9986099179109107</v>
       </c>
       <c r="Q33">
         <v>0.350729864341758</v>
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="S33">
-        <v>0.9996675839445586</v>
+        <v>0.8553008877711408</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="W33">
-        <v>0.998705540412191</v>
+        <v>0.8539460609588159</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2801,13 +2801,13 @@
         <v>8.686587014053822e-12</v>
       </c>
       <c r="F34">
-        <v>2.387649278680079e-07</v>
+        <v>1.368918919776578e-08</v>
       </c>
       <c r="G34">
         <v>1784777.796682794</v>
       </c>
       <c r="H34">
-        <v>0.9998971392266318</v>
+        <v>0.9999572190752938</v>
       </c>
       <c r="I34">
         <v>105.1413410751223</v>
@@ -2816,22 +2816,22 @@
         <v>2.764531658338609e-05</v>
       </c>
       <c r="K34">
-        <v>0.001206303703015982</v>
+        <v>0.0002074842369187489</v>
       </c>
       <c r="L34">
-        <v>0.9989163673426285</v>
+        <v>0.99981321600246</v>
       </c>
       <c r="M34">
-        <v>1.000008529855286</v>
+        <v>1.000003667837773</v>
       </c>
       <c r="N34">
-        <v>0.001017053366516092</v>
+        <v>0.000788413462415576</v>
       </c>
       <c r="O34">
-        <v>3.640934017910782e-06</v>
+        <v>4.637865552687822e-05</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0.9986086404250667</v>
       </c>
       <c r="Q34">
         <v>0.3372483466514601</v>
@@ -2840,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="S34">
-        <v>0.9994217722865691</v>
+        <v>0.8184751783612307</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>0.9982360763180549</v>
+        <v>0.8171487598524467</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2872,13 +2872,13 @@
         <v>7.212155524051183e-12</v>
       </c>
       <c r="F35">
-        <v>1.982377878316232e-07</v>
+        <v>1.136563316901307e-08</v>
       </c>
       <c r="G35">
         <v>2149652.427756815</v>
       </c>
       <c r="H35">
-        <v>0.9999091774591482</v>
+        <v>0.9999622084077336</v>
       </c>
       <c r="I35">
         <v>95.55095908186888</v>
@@ -2887,22 +2887,22 @@
         <v>3.548691496862573e-05</v>
       </c>
       <c r="K35">
-        <v>0.001548471937593679</v>
+        <v>0.0002663371732661127</v>
       </c>
       <c r="L35">
-        <v>0.9986095588475665</v>
+        <v>0.9997602410440828</v>
       </c>
       <c r="M35">
-        <v>1.000010949350076</v>
+        <v>1.000004708220533</v>
       </c>
       <c r="N35">
-        <v>0.00130554071346035</v>
+        <v>0.001012047064697946</v>
       </c>
       <c r="O35">
-        <v>3.644427328815013e-06</v>
+        <v>4.644922420171082e-05</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0.9986065248406805</v>
       </c>
       <c r="Q35">
         <v>0.3249104994990378</v>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="S35">
-        <v>0.9989911694606339</v>
+        <v>0.7732670655754511</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0.9975115262673991</v>
+        <v>0.7719752224954315</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2943,13 +2943,13 @@
         <v>5.996268755206733e-12</v>
       </c>
       <c r="F36">
-        <v>1.648171686414715e-07</v>
+        <v>9.449517668777698e-09</v>
       </c>
       <c r="G36">
         <v>2585545.822670824</v>
       </c>
       <c r="H36">
-        <v>0.9999197306670793</v>
+        <v>0.9999665851015881</v>
       </c>
       <c r="I36">
         <v>86.83535598943621</v>
@@ -2958,22 +2958,22 @@
         <v>4.561577120072551e-05</v>
       </c>
       <c r="K36">
-        <v>0.001990444694289884</v>
+        <v>0.00034235648741786</v>
       </c>
       <c r="L36">
-        <v>0.9982135540605636</v>
+        <v>0.9996918183661541</v>
       </c>
       <c r="M36">
-        <v>1.000014074569409</v>
+        <v>1.000006052064846</v>
       </c>
       <c r="N36">
-        <v>0.001678174801362439</v>
+        <v>0.001300910698730574</v>
       </c>
       <c r="O36">
-        <v>3.65022397974732e-06</v>
+        <v>4.656632284708607e-05</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0.9986030143401851</v>
       </c>
       <c r="Q36">
         <v>0.3137668443944204</v>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="S36">
-        <v>0.9982358628410677</v>
+        <v>0.7185482792439601</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="W36">
-        <v>0.9963725838543399</v>
+        <v>0.7172993742858531</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3014,13 +3014,13 @@
         <v>4.991228394730075e-12</v>
       </c>
       <c r="F37">
-        <v>1.371920048360083e-07</v>
+        <v>7.865674943931142e-09</v>
       </c>
       <c r="G37">
         <v>3106174.754095738</v>
       </c>
       <c r="H37">
-        <v>0.9999290002100175</v>
+        <v>0.9999704317776056</v>
       </c>
       <c r="I37">
         <v>78.91473955119022</v>
@@ -3029,22 +3029,22 @@
         <v>5.870460149883951e-05</v>
       </c>
       <c r="K37">
-        <v>0.002561575952965772</v>
+        <v>0.0004405910639101127</v>
       </c>
       <c r="L37">
-        <v>0.9977022764999078</v>
+        <v>0.9996034073400767</v>
       </c>
       <c r="M37">
-        <v>1.000018113077269</v>
+        <v>1.000007788623225</v>
       </c>
       <c r="N37">
-        <v>0.002159704426038713</v>
+        <v>0.001674189477549391</v>
       </c>
       <c r="O37">
-        <v>3.659858974222551e-06</v>
+        <v>4.676096020138309e-05</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0.9985971793339026</v>
       </c>
       <c r="Q37">
         <v>0.3038152119064486</v>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="S37">
-        <v>0.996910164647506</v>
+        <v>0.6535336073348527</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="W37">
-        <v>0.9945489229562101</v>
+        <v>0.6523387047789324</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3085,13 +3085,13 @@
         <v>4.158788085411252e-12</v>
       </c>
       <c r="F38">
-        <v>1.143110332775164e-07</v>
+        <v>6.553832574577606e-09</v>
       </c>
       <c r="G38">
         <v>3727919.603795642</v>
       </c>
       <c r="H38">
-        <v>0.999937156045564</v>
+        <v>0.9999738182392491</v>
       </c>
       <c r="I38">
         <v>71.71659570543805</v>
@@ -3100,22 +3100,22 @@
         <v>7.562445560233146e-05</v>
       </c>
       <c r="K38">
-        <v>0.003299873978888851</v>
+        <v>0.0005675783243688822</v>
       </c>
       <c r="L38">
-        <v>0.9970420466055269</v>
+        <v>0.9994891305121509</v>
       </c>
       <c r="M38">
-        <v>1.000023333632675</v>
+        <v>1.00001003346205</v>
       </c>
       <c r="N38">
-        <v>0.002782174945593526</v>
+        <v>0.00215672476402599</v>
       </c>
       <c r="O38">
-        <v>3.675896895715833e-06</v>
+        <v>4.708494363654756e-05</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0.9985874667549893</v>
       </c>
       <c r="Q38">
         <v>0.2950141541138939</v>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="S38">
-        <v>0.994583704730979</v>
+        <v>0.5781285323079235</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0.9915794537951155</v>
+        <v>0.5770018681777264</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3156,13 +3156,13 @@
         <v>3.468109238631446e-12</v>
       </c>
       <c r="F39">
-        <v>9.532660535841127e-08</v>
+        <v>5.465392040548913e-09</v>
       </c>
       <c r="G39">
         <v>4470340.051270776</v>
       </c>
       <c r="H39">
-        <v>0.9999443424590393</v>
+        <v>0.9999768038015012</v>
       </c>
       <c r="I39">
         <v>65.17502470170267</v>
@@ -3171,22 +3171,22 @@
         <v>9.750323113378348e-05</v>
       </c>
       <c r="K39">
-        <v>0.004254554597627253</v>
+        <v>0.0007317833907918872</v>
       </c>
       <c r="L39">
-        <v>0.9961893845784421</v>
+        <v>0.9993413804585065</v>
       </c>
       <c r="M39">
-        <v>1.000030084244069</v>
+        <v>1.00001293622495</v>
       </c>
       <c r="N39">
-        <v>0.00358708098609392</v>
+        <v>0.002780682934956528</v>
       </c>
       <c r="O39">
-        <v>3.70262517753813e-06</v>
+        <v>4.7624883962634e-05</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0.9985712802946628</v>
       </c>
       <c r="Q39">
         <v>0.2872952087990484</v>
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="S39">
-        <v>0.9905058413477411</v>
+        <v>0.4933738315486339</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0.9866764854699943</v>
+        <v>0.4923330367231719</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3227,13 +3227,13 @@
         <v>2.894200772787367e-12</v>
       </c>
       <c r="F40">
-        <v>7.955180068214378e-08</v>
+        <v>4.560969905776243e-09</v>
       </c>
       <c r="G40">
         <v>5356790.647493682</v>
       </c>
       <c r="H40">
-        <v>0.999950682604457</v>
+        <v>0.9999794391382343</v>
       </c>
       <c r="I40">
         <v>59.23013778169977</v>
@@ -3242,22 +3242,22 @@
         <v>0.0001258014549196122</v>
       </c>
       <c r="K40">
-        <v>0.005489347913835282</v>
+        <v>0.0009441678411796682</v>
       </c>
       <c r="L40">
-        <v>0.9950881898428532</v>
+        <v>0.9991503114773017</v>
       </c>
       <c r="M40">
-        <v>1.000038815551342</v>
+        <v>1.000016690687077</v>
       </c>
       <c r="N40">
-        <v>0.004628154387477905</v>
+        <v>0.003587716579440238</v>
       </c>
       <c r="O40">
-        <v>3.747215284755358e-06</v>
+        <v>4.852565256389196e-05</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0.9985442774219027</v>
       </c>
       <c r="Q40">
         <v>0.2805732851395691</v>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="S40">
-        <v>0.9833768166596762</v>
+        <v>0.4019083701323571</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="W40">
-        <v>0.9784983970507923</v>
+        <v>0.4009740586974342</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3298,13 +3298,13 @@
         <v>2.416718851929949e-12</v>
       </c>
       <c r="F41">
-        <v>6.642743593366989e-08</v>
+        <v>3.80850632686374e-09</v>
       </c>
       <c r="G41">
         <v>6415155.664158217</v>
       </c>
       <c r="H41">
-        <v>0.9999562821229989</v>
+        <v>0.9999817677555354</v>
       </c>
       <c r="I41">
         <v>53.82750889156914</v>
@@ -3313,22 +3313,22 @@
         <v>0.0001624104268548831</v>
       </c>
       <c r="K41">
-        <v>0.007086780819908965</v>
+        <v>0.001218926301024342</v>
       </c>
       <c r="L41">
-        <v>0.9936661268070257</v>
+        <v>0.9989031827072704</v>
       </c>
       <c r="M41">
-        <v>1.000050111107745</v>
+        <v>1.000021547776331</v>
       </c>
       <c r="N41">
-        <v>0.005974974853040465</v>
+        <v>0.004631763451969355</v>
       </c>
       <c r="O41">
-        <v>3.821668064506826e-06</v>
+        <v>5.002967958831201e-05</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0.9984991919423147</v>
       </c>
       <c r="Q41">
         <v>0.2747549210318906</v>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="S41">
-        <v>0.9709736209529536</v>
+        <v>0.3082660283981977</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="W41">
-        <v>0.9647814171247659</v>
+        <v>0.3074601703974425</v>
       </c>
     </row>
   </sheetData>
